--- a/FbProj/PswGame/PswGame_Config/xls/map.xlsx
+++ b/FbProj/PswGame/PswGame_Config/xls/map.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="35">
   <si>
     <t>map_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,10 @@
   </si>
   <si>
     <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -526,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -600,6 +604,9 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -625,6 +632,9 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D7" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
@@ -636,6 +646,9 @@
       <c r="C8" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -675,6 +688,9 @@
       <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="D11" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
@@ -689,11 +705,6 @@
       <c r="D12" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
